--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ptn-Alk.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G2">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H2">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I2">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J2">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,22 +561,22 @@
         <v>0.25387</v>
       </c>
       <c r="O2">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P2">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q2">
-        <v>0.01578259016</v>
+        <v>0.06067450688333333</v>
       </c>
       <c r="R2">
-        <v>0.14204331144</v>
+        <v>0.5460705619499999</v>
       </c>
       <c r="S2">
-        <v>0.0009265386956003324</v>
+        <v>0.003000203406928993</v>
       </c>
       <c r="T2">
-        <v>0.0009265386956003325</v>
+        <v>0.003000203406928993</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="F3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G3">
-        <v>0.186504</v>
+        <v>0.7169949999999999</v>
       </c>
       <c r="H3">
-        <v>0.559512</v>
+        <v>2.150985</v>
       </c>
       <c r="I3">
-        <v>0.0009474183894496628</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="J3">
-        <v>0.0009474183894496627</v>
+        <v>0.003651663653539308</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N3">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O3">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P3">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q3">
-        <v>0.000355663128</v>
+        <v>0.013174783125</v>
       </c>
       <c r="R3">
-        <v>0.003200968152</v>
+        <v>0.118573048125</v>
       </c>
       <c r="S3">
-        <v>2.087969384933038E-05</v>
+        <v>0.0006514602466103153</v>
       </c>
       <c r="T3">
-        <v>2.087969384933038E-05</v>
+        <v>0.0006514602466103153</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>574.431976</v>
       </c>
       <c r="I4">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J4">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -685,10 +685,10 @@
         <v>0.25387</v>
       </c>
       <c r="O4">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P4">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q4">
         <v>16.20344952745777</v>
@@ -697,10 +697,10 @@
         <v>145.83104574712</v>
       </c>
       <c r="S4">
-        <v>0.9512458244937756</v>
+        <v>0.8012202648759306</v>
       </c>
       <c r="T4">
-        <v>0.9512458244937757</v>
+        <v>0.8012202648759306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>574.431976</v>
       </c>
       <c r="I5">
-        <v>0.9726822973418038</v>
+        <v>0.9751961860217362</v>
       </c>
       <c r="J5">
-        <v>0.9726822973418037</v>
+        <v>0.9751961860217361</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N5">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O5">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P5">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q5">
-        <v>0.3651472594106666</v>
+        <v>3.518395852999999</v>
       </c>
       <c r="R5">
-        <v>3.286325334696</v>
+        <v>31.66556267699999</v>
       </c>
       <c r="S5">
-        <v>0.02143647284802809</v>
+        <v>0.1739759211458056</v>
       </c>
       <c r="T5">
-        <v>0.02143647284802809</v>
+        <v>0.1739759211458056</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H6">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I6">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J6">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,22 +809,22 @@
         <v>0.25387</v>
       </c>
       <c r="O6">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P6">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q6">
-        <v>0.405300267521111</v>
+        <v>0.3502234530988889</v>
       </c>
       <c r="R6">
-        <v>3.647702407689999</v>
+        <v>3.15201107789</v>
       </c>
       <c r="S6">
-        <v>0.02379371049925787</v>
+        <v>0.01731767839817996</v>
       </c>
       <c r="T6">
-        <v>0.02379371049925787</v>
+        <v>0.01731767839817995</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.789462333333333</v>
+        <v>4.138615666666666</v>
       </c>
       <c r="H7">
-        <v>14.368387</v>
+        <v>12.415847</v>
       </c>
       <c r="I7">
-        <v>0.02432990547214264</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="J7">
-        <v>0.02432990547214263</v>
+        <v>0.02107801645190694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N7">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O7">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P7">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q7">
-        <v>0.009133504669666666</v>
+        <v>0.07604706287499999</v>
       </c>
       <c r="R7">
-        <v>0.082201542027</v>
+        <v>0.6844235658749999</v>
       </c>
       <c r="S7">
-        <v>0.0005361949728847612</v>
+        <v>0.003760338053726987</v>
       </c>
       <c r="T7">
-        <v>0.0005361949728847612</v>
+        <v>0.003760338053726986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.4016586666666667</v>
+        <v>0.014556</v>
       </c>
       <c r="H8">
-        <v>1.204976</v>
+        <v>0.043668</v>
       </c>
       <c r="I8">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="J8">
-        <v>0.002040378796603999</v>
+        <v>7.413387281768795E-05</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,22 +933,22 @@
         <v>0.25387</v>
       </c>
       <c r="O8">
-        <v>0.9779614855676814</v>
+        <v>0.8215990550008899</v>
       </c>
       <c r="P8">
-        <v>0.9779614855676816</v>
+        <v>0.82159905500089</v>
       </c>
       <c r="Q8">
-        <v>0.03398969523555555</v>
+        <v>0.00123177724</v>
       </c>
       <c r="R8">
-        <v>0.30590725712</v>
+        <v>0.01108599516</v>
       </c>
       <c r="S8">
-        <v>0.001995411879047645</v>
+        <v>6.090831985056858E-05</v>
       </c>
       <c r="T8">
-        <v>0.001995411879047645</v>
+        <v>6.090831985056858E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.014556</v>
+      </c>
+      <c r="H9">
+        <v>0.043668</v>
+      </c>
+      <c r="I9">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="J9">
+        <v>7.413387281768795E-05</v>
+      </c>
+      <c r="K9">
         <v>2</v>
       </c>
-      <c r="F9">
+      <c r="L9">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G9">
-        <v>0.4016586666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.204976</v>
-      </c>
-      <c r="I9">
-        <v>0.002040378796603999</v>
-      </c>
-      <c r="J9">
-        <v>0.002040378796603999</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M9">
-        <v>0.001907</v>
+        <v>0.018375</v>
       </c>
       <c r="N9">
-        <v>0.005721</v>
+        <v>0.05512499999999999</v>
       </c>
       <c r="O9">
-        <v>0.02203851443231853</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="P9">
-        <v>0.02203851443231854</v>
+        <v>0.17840094499911</v>
       </c>
       <c r="Q9">
-        <v>0.0007659630773333334</v>
+        <v>0.0002674665</v>
       </c>
       <c r="R9">
-        <v>0.006893667696000001</v>
+        <v>0.002407198499999999</v>
       </c>
       <c r="S9">
-        <v>4.496691755635396E-05</v>
+        <v>1.322555296711936E-05</v>
       </c>
       <c r="T9">
-        <v>4.496691755635397E-05</v>
+        <v>1.322555296711936E-05</v>
       </c>
     </row>
   </sheetData>
